--- a/各セクションごとの実施項目.xlsx
+++ b/各セクションごとの実施項目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hsuser\Desktop\仮ドキュメント\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2A9870-5B9E-412D-87B4-9B51E1792AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295A6560-4E85-4B87-95F8-69AEC172AA6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="93">
   <si>
     <t>section</t>
     <phoneticPr fontId="1"/>
@@ -868,6 +868,98 @@
   </si>
   <si>
     <t>システムプロンプトに記載することを前提に分かりやすい命名規則を定義しておく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例：「HTTPリクエストブロックの直後にIF/ELSEブロックを配置して status_code の値で処理を分岐する」</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>チョクゴ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ブンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例：「ツールからエラー時のメッセージを出力し、AIエージェントにそれを表示させる処理を追記する」</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ツイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>明確にしたものは一つのシーケンス図に処理の分岐をまとめる</t>
+    <rPh sb="0" eb="2">
+      <t>メイカク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ブンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>APIリクエスト先、利用データベース等</t>
+    <rPh sb="8" eb="9">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ナド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーに当たる人の役割を明確にする</t>
+    <rPh sb="5" eb="6">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヤクワリ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>メイカク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -891,12 +983,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -972,18 +1070,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -996,16 +1097,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1287,10 +1385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F41"/>
+  <dimension ref="B2:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1305,498 +1403,515 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" s="2" customFormat="1">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="14" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:6">
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6" t="s">
+    <row r="5" spans="2:6">
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5" t="s">
+    <row r="6" spans="2:6">
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="2:6">
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F7" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6" t="s">
+    <row r="8" spans="2:6">
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="5" t="s">
+    <row r="9" spans="2:6">
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F9" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="6" t="s">
+    <row r="10" spans="2:6">
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="2:6" ht="75">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4" t="s">
+      <c r="F10" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="75">
+      <c r="B11" s="13"/>
+      <c r="C11" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D11" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F11" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="2:6">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5" t="s">
+    <row r="12" spans="2:6">
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F12" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="2:6">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="11" t="s">
+    <row r="13" spans="2:6">
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="2:6">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="5" t="s">
+    <row r="14" spans="2:6">
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F14" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="2:6">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="6" t="s">
+    <row r="15" spans="2:6">
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F15" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="2:6">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="6" t="s">
+    <row r="16" spans="2:6">
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F16" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="2:6">
-      <c r="B16" s="8" t="s">
+    <row r="17" spans="2:6">
+      <c r="B17" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C17" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D17" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E17" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F17" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="6" t="s">
+    <row r="18" spans="2:6">
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F18" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="12" t="s">
+    <row r="19" spans="2:6">
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E19" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F19" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="6" t="s">
+    <row r="20" spans="2:6">
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="6" t="s">
+    <row r="21" spans="2:6">
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="4" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="6" t="s">
+      <c r="D22" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="2:6">
-      <c r="B23" s="8" t="s">
+    <row r="24" spans="2:6">
+      <c r="B24" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C24" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D24" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E24" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F24" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="2:6">
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="6" t="s">
+    <row r="25" spans="2:6">
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="2:6">
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="12" t="s">
+    <row r="26" spans="2:6">
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F26" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="2:6">
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="6" t="s">
+    <row r="27" spans="2:6">
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="2:6">
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="6" t="s">
+    <row r="28" spans="2:6">
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="2:6">
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="12" t="s">
+    <row r="29" spans="2:6">
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E28" s="12" t="s">
+      <c r="E29" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F29" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="2:6">
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="6" t="s">
+    <row r="30" spans="2:6">
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="2:6">
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="6" t="s">
+    <row r="31" spans="2:6">
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F31" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="2:6">
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="6" t="s">
+    <row r="32" spans="2:6">
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F32" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="2:6">
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="12" t="s">
+    <row r="33" spans="2:6">
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="E33" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="F33" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="2:6">
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="6" t="s">
+    <row r="34" spans="2:6">
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="2:6">
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="6" t="s">
+    <row r="35" spans="2:6">
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="F35" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="2:6">
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="12" t="s">
+    <row r="36" spans="2:6">
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="F36" s="4" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6">
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="6" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="37" spans="2:6">
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="6" t="s">
+      <c r="D37" s="7"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="F38" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="2:6" ht="75">
-      <c r="B38" s="8" t="s">
+    <row r="39" spans="2:6" ht="75">
+      <c r="B39" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C39" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D39" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E39" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F38" s="11" t="s">
+      <c r="F39" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="2:6" ht="37.5">
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="6" t="s">
+    <row r="40" spans="2:6" ht="37.5">
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E40" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F39" s="11" t="s">
+      <c r="F40" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="2:6">
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F40" s="6"/>
-    </row>
-    <row r="41" spans="2:6">
+    <row r="41" spans="2:6" ht="37.5">
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="6" t="s">
+      <c r="D41" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" ht="37.5">
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F41" s="6"/>
+      <c r="F42" s="5" t="s">
+        <v>89</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="D23:D27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="B23:B37"/>
-    <mergeCell ref="C23:C37"/>
-    <mergeCell ref="D32:D37"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="B16:B22"/>
-    <mergeCell ref="C16:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="B3:B15"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="C10:C15"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="C3:C9"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="B3:B16"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="C3:C10"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="B17:B23"/>
+    <mergeCell ref="C17:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="B24:B38"/>
+    <mergeCell ref="C24:C38"/>
+    <mergeCell ref="D33:D38"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="D24:D28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E33:E34"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/各セクションごとの実施項目.xlsx
+++ b/各セクションごとの実施項目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hsuser\Desktop\仮ドキュメント\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295A6560-4E85-4B87-95F8-69AEC172AA6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9D7A66-A7C9-4FA1-8A26-D5D63C19E2F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -983,7 +983,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -993,6 +993,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1061,7 +1067,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1070,14 +1076,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1096,13 +1102,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1387,8 +1417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1403,262 +1433,262 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" s="2" customFormat="1">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="14" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="4" t="s">
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="4" t="s">
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="14" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="12" t="s">
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="14" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="14" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="4" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="12" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="4" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="14" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="75">
-      <c r="B11" s="13"/>
-      <c r="C11" s="13" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="16" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12" t="s">
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="16" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="5" t="s">
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="16" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="12" t="s">
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="14" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="4" t="s">
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="4" t="s">
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="14" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="14" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="4" t="s">
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="14" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="6" t="s">
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="14" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="4" t="s">
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="14" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="4" t="s">
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="14" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="6" t="s">
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="14" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="4" t="s">
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="14" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1675,7 +1705,7 @@
       <c r="E24" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="3" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1684,7 +1714,7 @@
       <c r="C25" s="10"/>
       <c r="D25" s="7"/>
       <c r="E25" s="8"/>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="3" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1695,7 +1725,7 @@
       <c r="E26" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="3" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1704,7 +1734,7 @@
       <c r="C27" s="10"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="3" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1713,7 +1743,7 @@
       <c r="C28" s="10"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="3" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1726,7 +1756,7 @@
       <c r="E29" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="3" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1735,7 +1765,7 @@
       <c r="C30" s="10"/>
       <c r="D30" s="7"/>
       <c r="E30" s="8"/>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="3" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1743,10 +1773,10 @@
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
       <c r="D31" s="7"/>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="F31" s="3" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1754,10 +1784,10 @@
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
       <c r="D32" s="8"/>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F32" s="3" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1770,7 +1800,7 @@
       <c r="E33" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="F33" s="3" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1779,7 +1809,7 @@
       <c r="C34" s="10"/>
       <c r="D34" s="7"/>
       <c r="E34" s="8"/>
-      <c r="F34" s="4" t="s">
+      <c r="F34" s="3" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1787,10 +1817,10 @@
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="7"/>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="F35" s="3" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1801,7 +1831,7 @@
       <c r="E36" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="F36" s="3" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1810,7 +1840,7 @@
       <c r="C37" s="10"/>
       <c r="D37" s="7"/>
       <c r="E37" s="8"/>
-      <c r="F37" s="4" t="s">
+      <c r="F37" s="3" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1818,10 +1848,10 @@
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
       <c r="D38" s="8"/>
-      <c r="E38" s="4" t="s">
+      <c r="E38" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="F38" s="3" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1832,26 +1862,26 @@
       <c r="C39" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E39" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="F39" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="40" spans="2:6" ht="37.5">
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E40" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="F40" s="4" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1861,10 +1891,10 @@
       <c r="D41" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E41" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="F41" s="4" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1872,15 +1902,35 @@
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
       <c r="D42" s="8"/>
-      <c r="E42" s="4" t="s">
+      <c r="E42" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="F42" s="4" t="s">
         <v>89</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="B24:B38"/>
+    <mergeCell ref="C24:C38"/>
+    <mergeCell ref="D33:D38"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="D24:D28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="B17:B23"/>
+    <mergeCell ref="C17:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="B3:B16"/>
     <mergeCell ref="D11:D13"/>
@@ -1892,26 +1942,6 @@
     <mergeCell ref="D6:D8"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="C3:C10"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="B17:B23"/>
-    <mergeCell ref="C17:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="C39:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="B24:B38"/>
-    <mergeCell ref="C24:C38"/>
-    <mergeCell ref="D33:D38"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="D24:D28"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E33:E34"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
